--- a/src/pages/ServiceItem/ESGtech/ESGData/綠色金融科技 永續資料庫 範例.xlsx
+++ b/src/pages/ServiceItem/ESGtech/ESGData/綠色金融科技 永續資料庫 範例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\金融程式開發\FintechWeb\my-app\src\pages\ServiceItem\ESGtech\ESGData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6ACE711-9ABA-4845-B701-D57EA1A512B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7F36C2-A0AB-4551-8758-8CCE13BA53A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8AFDAAE5-0DBF-43C6-BB1B-A8BF1306087F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AFDAAE5-0DBF-43C6-BB1B-A8BF1306087F}"/>
   </bookViews>
   <sheets>
     <sheet name="ESG 表現" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="114">
   <si>
     <t>公司名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -552,162 +552,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>81,662 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>82,030千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>87,706 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>91,471 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>87,269 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>廢棄物產生</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,001 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>818.2 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>未公布</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>485.4 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>828.5 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>973.8 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>廢棄物回收率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>86,737 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>82,800 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,300 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>104,600 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>64,000 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>49,200 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,690 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,851 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,160 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,923 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,611 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,764 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2520 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.4 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.6 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.2 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>溫室氣體排放量 (範疇一 與範疇二 合計)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9,464 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,304 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,599 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,757 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,220 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,417 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>142 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>151 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>177 千噸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>女性高階主管</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -717,6 +577,126 @@
   </si>
   <si>
     <t>SDGS 8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hon Hai</t>
+  </si>
+  <si>
+    <t>TSMC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>104,600 tons</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>64,000 tons</t>
+  </si>
+  <si>
+    <t>9,464 tons</t>
+  </si>
+  <si>
+    <t>973.8 tons</t>
+  </si>
+  <si>
+    <t>91,471 tons</t>
+  </si>
+  <si>
+    <t>87,269 tons</t>
+  </si>
+  <si>
+    <t>5,757 tons</t>
+  </si>
+  <si>
+    <t>818.2 tons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,923 tons</t>
+  </si>
+  <si>
+    <t>2,611 tons</t>
+  </si>
+  <si>
+    <t>142 tons</t>
+  </si>
+  <si>
+    <t>49.2 tons</t>
+  </si>
+  <si>
+    <t>82,800 tons</t>
+  </si>
+  <si>
+    <t>49,200 tons</t>
+  </si>
+  <si>
+    <t>10,304 tons</t>
+  </si>
+  <si>
+    <t>828.5 tons</t>
+  </si>
+  <si>
+    <t>87,706 tons</t>
+  </si>
+  <si>
+    <t>82,030tons</t>
+  </si>
+  <si>
+    <t>6,220 tons</t>
+  </si>
+  <si>
+    <t>1,001 tons</t>
+  </si>
+  <si>
+    <t>4,160 tons</t>
+  </si>
+  <si>
+    <t>2,764 tons</t>
+  </si>
+  <si>
+    <t>151 tons</t>
+  </si>
+  <si>
+    <t>50.6 tons</t>
+  </si>
+  <si>
+    <t>77,300 tons</t>
+  </si>
+  <si>
+    <t>46,690 tons</t>
+  </si>
+  <si>
+    <t>11,599 tons</t>
+  </si>
+  <si>
+    <t>485.4 tons</t>
+  </si>
+  <si>
+    <t>86,737 tons</t>
+  </si>
+  <si>
+    <t>81,662 tons</t>
+  </si>
+  <si>
+    <t>5,417 tons</t>
+  </si>
+  <si>
+    <t>3,851 tons</t>
+  </si>
+  <si>
+    <t>2520 tons</t>
+  </si>
+  <si>
+    <t>177 tons</t>
+  </si>
+  <si>
+    <t>39.4 tons</t>
+  </si>
+  <si>
+    <t>unannounced</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -727,9 +707,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -784,6 +764,17 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -885,75 +876,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1273,452 +1270,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207DDBA3-ED0C-4183-9222-AB95B54F1732}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="43" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="43" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="9" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.104</v>
+      </c>
+      <c r="J2" s="11">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75">
+      <c r="A3" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="I3" s="11">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="13">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="H6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="11">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="I8" s="11">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75">
+      <c r="A9" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="18">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0.96</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0.104</v>
-      </c>
-      <c r="J2" s="19">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="18">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0.85</v>
-      </c>
-      <c r="I3" s="19">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="J3" s="19">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="18">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="21">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="20">
-        <v>0.99</v>
-      </c>
-      <c r="I4" s="20">
-        <v>0.63</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="18">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="19">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="J5" s="19">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="18">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="21">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="F9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="19">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="J6" s="19">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="18">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0.995</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="18">
+      <c r="H9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.1245</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10">
         <v>2020</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="20">
-        <v>0.95</v>
-      </c>
-      <c r="I8" s="19">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="18">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="21">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0.1245</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="18">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="C10" s="11">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="D10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="11">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="12">
         <v>0.45</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="11">
         <v>0.13200000000000001</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="22"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="18"/>
+      <c r="I17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1734,131 +1731,131 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.2" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.2" thickBot="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.2">
+    <row r="4" spans="1:21" ht="16.5">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
@@ -1896,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.2">
+    <row r="5" spans="1:21" ht="16.5">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
@@ -1937,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.2">
+    <row r="6" spans="1:21" ht="16.5">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -1969,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.2">
+    <row r="7" spans="1:21" ht="16.5">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
@@ -2007,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.2">
+    <row r="8" spans="1:21" ht="16.5">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -2048,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.2">
+    <row r="9" spans="1:21" ht="16.5">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
@@ -2080,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.2">
+    <row r="10" spans="1:21" ht="16.5">
       <c r="A10" s="1">
         <v>2020</v>
       </c>
@@ -2115,7 +2112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.2">
+    <row r="11" spans="1:21" ht="16.5">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
@@ -2156,7 +2153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.2">
+    <row r="12" spans="1:21" ht="16.5">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
@@ -2188,70 +2185,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.2">
+    <row r="13" spans="1:21" ht="16.5">
       <c r="U13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.2">
+    <row r="14" spans="1:21" ht="16.5">
       <c r="U14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.2">
+    <row r="15" spans="1:21" ht="16.5">
       <c r="U15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.8" thickBot="1">
+    <row r="16" spans="1:21" ht="17.25" thickBot="1">
       <c r="U16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="9:21" ht="16.8" thickBot="1">
-      <c r="I17" s="16"/>
+    <row r="17" spans="9:21" ht="17.25" thickBot="1">
+      <c r="I17" s="8"/>
       <c r="U17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="9:21" ht="16.8" thickBot="1">
-      <c r="I18" s="16"/>
+    <row r="18" spans="9:21" ht="17.25" thickBot="1">
+      <c r="I18" s="8"/>
       <c r="U18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="9:21" ht="16.8" thickBot="1">
-      <c r="I19" s="16"/>
+    <row r="19" spans="9:21" ht="17.25" thickBot="1">
+      <c r="I19" s="8"/>
       <c r="U19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="9:21" ht="16.2" thickBot="1">
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="9:21" ht="16.2" thickBot="1">
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="9:21" ht="16.2" thickBot="1">
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="9:21" ht="16.2" thickBot="1">
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="9:21" ht="16.2" thickBot="1">
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="9:21" ht="16.2" thickBot="1">
-      <c r="I25" s="16"/>
+    <row r="20" spans="9:21" ht="16.5" thickBot="1">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="9:21" ht="16.5" thickBot="1">
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="9:21" ht="16.5" thickBot="1">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="9:21" ht="16.5" thickBot="1">
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="9:21" ht="16.5" thickBot="1">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="9:21" ht="16.5" thickBot="1">
+      <c r="I25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="H2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="D1:T1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B1:C3"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2262,301 +2259,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A6125F-A31F-4235-8BE5-7FF9956A4BF2}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>108</v>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>109</v>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E17">
